--- a/console/Elastic-Compute/Virtual-Machine/components/compute/imageDiskTypeChooseBtn.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/compute/imageDiskTypeChooseBtn.xlsx
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“Cloud disk system disk ”image only supports creating the virtual machine of which the system disk is cloud disk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>see_detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>System disk of cloud disk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>localDisk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,7 +105,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>System disk of local disk</t>
+    <t>“Cloud system disk image” only supports creating the VM whose system disk is cloud disk</t>
+  </si>
+  <si>
+    <t>Cloud system disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local system disk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,13 +478,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="126.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -498,37 +497,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
